--- a/output/zamienie/2024/sheets/year_2024.xlsx
+++ b/output/zamienie/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.5741935483871</v>
+        <v>39.80869815379654</v>
       </c>
       <c r="C2" t="n">
-        <v>19.10967741935484</v>
+        <v>40.75488610893583</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25.89310344827587</v>
+        <v>39.57460102007664</v>
       </c>
       <c r="C3" t="n">
-        <v>25.04137931034483</v>
+        <v>41.49704764481978</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.1032258064516</v>
+        <v>41.8517927316238</v>
       </c>
       <c r="C4" t="n">
-        <v>32.46774193548388</v>
+        <v>42.58262685819894</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.58</v>
+        <v>39.62159695533265</v>
       </c>
       <c r="C5" t="n">
-        <v>20.54</v>
+        <v>42.76982989089618</v>
       </c>
     </row>
   </sheetData>
